--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1D0AA-DF76-4931-888A-6544D0643AC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E6442-5D35-4ABC-A7CD-0C5B3034BCAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7830" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -139,6 +139,17 @@
   </si>
   <si>
     <t>Orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cyan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;を投げた</t>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -534,18 +545,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -567,7 +578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -578,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -589,7 +600,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -600,7 +611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -611,7 +622,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -622,7 +633,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -633,7 +644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -644,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -655,7 +666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -666,7 +677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -677,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -688,7 +699,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -697,6 +708,17 @@
       </c>
       <c r="C14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8E6442-5D35-4ABC-A7CD-0C5B3034BCAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5622F1-6510-4C62-A0EA-E8999A264CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -154,6 +154,34 @@
   </si>
   <si>
     <t>Cyan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を飲んだ</t>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;のHPが&lt;val2&gt;回復した</t>
+    <rPh sb="16" eb="18">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし何も起こらなかった</t>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>White</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -545,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -721,6 +749,39 @@
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5622F1-6510-4C62-A0EA-E8999A264CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56494D5D-1737-4F4D-9C75-4CBF8725B394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +182,57 @@
   </si>
   <si>
     <t>White</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お腹いっぱいになった</t>
+    <rPh sb="1" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お腹が回復した</t>
+    <rPh sb="1" eb="2">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cyan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は砕け散った</t>
+    <rPh sb="7" eb="8">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は壁に当たって地面に落ちた</t>
+    <rPh sb="7" eb="8">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cyan</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -782,6 +833,50 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56494D5D-1737-4F4D-9C75-4CBF8725B394}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F13191C-5483-4B2F-933D-C1CFA626A3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7830" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -228,6 +228,17 @@
     </rPh>
     <rPh sb="16" eb="17">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cyan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は&lt;val2&gt;を振った</t>
+    <rPh sb="14" eb="15">
+      <t>フ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -624,18 +635,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -657,7 +668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -668,7 +679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -679,7 +690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -690,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -701,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -712,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -723,7 +734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -734,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -745,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -756,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -767,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -778,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -789,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -800,7 +811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -811,7 +822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -822,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -833,7 +844,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -844,7 +855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -855,7 +866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -866,7 +877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -875,6 +886,17 @@
       </c>
       <c r="C22" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F13191C-5483-4B2F-933D-C1CFA626A3AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C61C8-5BEA-4E1B-97A8-EDCF2808DEDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7830" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -244,6 +244,17 @@
   </si>
   <si>
     <t>Cyan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Orange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は正常に戻った</t>
+    <rPh sb="7" eb="13">
+      <t>セイジョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,18 +646,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -668,7 +679,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -679,7 +690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -690,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -701,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -712,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -723,7 +734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -734,7 +745,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -745,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -756,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -767,7 +778,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -778,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -789,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -800,7 +811,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -811,7 +822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -822,7 +833,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -833,7 +844,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -844,7 +855,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -855,7 +866,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -866,7 +877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -877,7 +888,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -888,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -897,6 +908,17 @@
       </c>
       <c r="C23" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4C61C8-5BEA-4E1B-97A8-EDCF2808DEDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99831D-0DE0-4457-A2D6-05B80A9BDBAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -254,6 +254,37 @@
     <t>&lt;val1&gt;は正常に戻った</t>
     <rPh sb="7" eb="13">
       <t>セイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は毒を受けた</t>
+    <rPh sb="7" eb="8">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は混乱した</t>
+    <rPh sb="7" eb="9">
+      <t>コンラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は麻痺した</t>
+    <rPh sb="7" eb="9">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;val1&gt;は眠った</t>
+    <rPh sb="7" eb="8">
+      <t>ネム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -646,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -921,6 +952,50 @@
         <v>34</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelMessageData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D99831D-0DE0-4457-A2D6-05B80A9BDBAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9467AD3F-75EB-4258-BE48-ECB7717B6C80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7836" xr2:uid="{E2CF799C-DE16-4482-8C53-5525D4DE4925}"/>
   </bookViews>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346B2AFC-5B9E-42B7-9AA0-92BD4891232E}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
